--- a/[FS] - Product Backlog.xlsx
+++ b/[FS] - Product Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnien\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\spring-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4319DC35-B72B-4AAA-B0BF-A90ADDB25E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0641D96C-5BDE-4DF5-B71D-D68F8E32125A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="837" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="24" r:id="rId5"/>
     <sheet name="Project Release Plan" sheetId="17" state="hidden" r:id="rId6"/>
     <sheet name="Sprint 1" sheetId="19" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="25" r:id="rId8"/>
+    <sheet name="US01" sheetId="25" r:id="rId8"/>
     <sheet name="RETROSPECTIVE" sheetId="22" r:id="rId9"/>
   </sheets>
   <externalReferences>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="167">
   <si>
     <t>Hitachi Vantara Vietnam Co., Ltd.</t>
   </si>
@@ -1456,21 +1456,6 @@
     <t>TESTING</t>
   </si>
   <si>
-    <t>Check Idap existed &amp; notnull</t>
-  </si>
-  <si>
-    <t>Check hcc_id existed &amp; notnull</t>
-  </si>
-  <si>
-    <t>Check email invalid, existed &amp; not null</t>
-  </si>
-  <si>
-    <t>Create Employe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check legalEntityHireDate invalid </t>
-  </si>
-  <si>
     <t>Detail</t>
   </si>
   <si>
@@ -1483,20 +1468,68 @@
     <t>Select employeeEvaluations2 (allow null)</t>
   </si>
   <si>
-    <t>Get all BU to select</t>
-  </si>
-  <si>
     <t>Select ProjectFeedback (allow null)</t>
   </si>
   <si>
-    <t>Check name ( not null)</t>
+    <t>Check if the name is not empty or null</t>
+  </si>
+  <si>
+    <t>Check if the hire date is not empty or null and is a valid date format (legalEntityHireDate)</t>
+  </si>
+  <si>
+    <t>Check if  the hcc_id is existed or null</t>
+  </si>
+  <si>
+    <t>Check if the Idap is existed or null.</t>
+  </si>
+  <si>
+    <t>Check if the email is valid and not already exists.</t>
+  </si>
+  <si>
+    <t>Check if the location ID is not empty or null and exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create BU </t>
+  </si>
+  <si>
+    <t>Validate that the code is not empty or null and does not already exist in the system.</t>
+  </si>
+  <si>
+    <t>Check if the business unit ID is not exists (FK)</t>
+  </si>
+  <si>
+    <t>If the business unit ID is not provided, assign the member to the "General" group by default.</t>
+  </si>
+  <si>
+    <t>Add the new group to the business unit if it passes validation.</t>
+  </si>
+  <si>
+    <t>1 hours</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Assign member to a group</t>
+  </si>
+  <si>
+    <t>Allow user to select group from a dropdown</t>
+  </si>
+  <si>
+    <t>Get list of available BU for the user to choose</t>
+  </si>
+  <si>
+    <t>0.5 hours</t>
+  </si>
+  <si>
+    <t>Create Employee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1796,6 +1829,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2275,7 +2313,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2584,6 +2622,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2622,24 +2683,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2670,6 +2713,12 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="14" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2688,14 +2737,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6297,36 +6344,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:256" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="128"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="134" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="136"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
     </row>
     <row r="3" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="129"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="137" t="s">
+      <c r="B3" s="138"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="148"/>
     </row>
     <row r="4" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="130"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="137" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="137" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="148"/>
     </row>
     <row r="5" spans="2:256" x14ac:dyDescent="0.2">
       <c r="B5" s="43"/>
@@ -6337,47 +6384,47 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:256" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
       <c r="H6" s="43"/>
     </row>
     <row r="7" spans="2:256" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
       <c r="H7" s="43"/>
     </row>
     <row r="8" spans="2:256" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="43"/>
     </row>
     <row r="9" spans="2:256" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="146"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="136"/>
       <c r="H9" s="48"/>
       <c r="J9" s="48"/>
       <c r="L9" s="48"/>
@@ -6581,17 +6628,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6755,18 +6802,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
       <c r="K1" s="79"/>
       <c r="L1" s="79"/>
     </row>
@@ -7482,7 +7529,7 @@
   <dimension ref="A2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7715,83 +7762,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
     </row>
     <row r="2" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
-      <c r="D2" s="154" t="s">
+      <c r="D2" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="52"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="118" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="153"/>
       <c r="E5" s="125" t="e">
         <f>Sprints[[#Totals],[Planned Points]]</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="152" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="125">
         <f>Sprints[[#Totals],[Actual Points]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="125">
         <f>MAX(Sprints[Release])</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="157"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="160"/>
       <c r="E8" s="126">
         <v>44585</v>
       </c>
@@ -7804,13 +7851,13 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="151" t="s">
+      <c r="E19" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="153"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="156"/>
     </row>
     <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
@@ -8477,114 +8524,235 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8146FF-73C9-4C40-A9E9-B24A7234FF34}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="129" t="s">
         <v>140</v>
       </c>
       <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="129" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="169" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="170"/>
+      <c r="B5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="170"/>
+      <c r="B6" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="120"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="170"/>
+      <c r="B7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
+    </row>
+    <row r="8" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="170"/>
+      <c r="B8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="170"/>
+      <c r="B9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="120"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="170"/>
+      <c r="B10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="120"/>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="170"/>
+      <c r="B11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="120"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="170"/>
+      <c r="B12" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="120"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="170"/>
+      <c r="B13" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="167" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="166" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="170"/>
+      <c r="B14" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="120"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="120"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="120"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="120"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="120"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>155</v>
       </c>
+      <c r="B21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="169" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="169" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="120"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="128"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:A14"/>
   </mergeCells>
+  <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8613,14 +8781,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="163" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="160"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="165"/>
     </row>
     <row r="4" spans="2:7" s="108" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:7" s="112" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8644,7 +8812,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" s="108" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="161">
+      <c r="B6" s="166">
         <v>1</v>
       </c>
       <c r="C6" s="115" t="s">
@@ -8664,7 +8832,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" s="108" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="162"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="115"/>
       <c r="D7" s="115"/>
       <c r="E7" s="116"/>
@@ -8672,7 +8840,7 @@
       <c r="G7" s="116"/>
     </row>
     <row r="8" spans="2:7" s="108" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="162"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="115"/>
       <c r="D8" s="115"/>
       <c r="E8" s="116"/>
@@ -8680,7 +8848,7 @@
       <c r="G8" s="116"/>
     </row>
     <row r="9" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="162"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="113"/>
       <c r="D9" s="113"/>
       <c r="E9" s="114"/>
@@ -8688,7 +8856,7 @@
       <c r="G9" s="114"/>
     </row>
     <row r="10" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="162"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="113"/>
       <c r="D10" s="113"/>
       <c r="E10" s="114"/>
@@ -8696,7 +8864,7 @@
       <c r="G10" s="114"/>
     </row>
     <row r="11" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="162"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="113"/>
       <c r="D11" s="113"/>
       <c r="E11" s="114"/>
@@ -8704,7 +8872,7 @@
       <c r="G11" s="114"/>
     </row>
     <row r="12" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="162"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="113"/>
       <c r="D12" s="113"/>
       <c r="E12" s="114"/>
@@ -8712,7 +8880,7 @@
       <c r="G12" s="114"/>
     </row>
     <row r="13" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="162"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="113"/>
       <c r="D13" s="113"/>
       <c r="E13" s="114"/>
@@ -8720,7 +8888,7 @@
       <c r="G13" s="114"/>
     </row>
     <row r="14" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="162"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="113"/>
       <c r="D14" s="113"/>
       <c r="E14" s="114"/>
@@ -8728,7 +8896,7 @@
       <c r="G14" s="114"/>
     </row>
     <row r="15" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="162"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="113"/>
       <c r="D15" s="113"/>
       <c r="E15" s="114"/>
@@ -8736,7 +8904,7 @@
       <c r="G15" s="114"/>
     </row>
     <row r="16" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="162"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="113"/>
       <c r="D16" s="113"/>
       <c r="E16" s="114"/>
@@ -8744,7 +8912,7 @@
       <c r="G16" s="114"/>
     </row>
     <row r="17" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="162"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="113"/>
       <c r="D17" s="113"/>
       <c r="E17" s="114"/>
@@ -8752,7 +8920,7 @@
       <c r="G17" s="114"/>
     </row>
     <row r="18" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="162"/>
+      <c r="B18" s="167"/>
       <c r="C18" s="113"/>
       <c r="D18" s="113"/>
       <c r="E18" s="114"/>
@@ -8760,7 +8928,7 @@
       <c r="G18" s="114"/>
     </row>
     <row r="19" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="162"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="113"/>
       <c r="D19" s="113"/>
       <c r="E19" s="114"/>
@@ -8768,7 +8936,7 @@
       <c r="G19" s="114"/>
     </row>
     <row r="20" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="162"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="113"/>
       <c r="D20" s="113"/>
       <c r="E20" s="114"/>
@@ -8776,7 +8944,7 @@
       <c r="G20" s="114"/>
     </row>
     <row r="21" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="162"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="113"/>
       <c r="D21" s="113"/>
       <c r="E21" s="114"/>
@@ -8784,7 +8952,7 @@
       <c r="G21" s="114"/>
     </row>
     <row r="22" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="162"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="113"/>
       <c r="D22" s="113"/>
       <c r="E22" s="114"/>
@@ -8792,7 +8960,7 @@
       <c r="G22" s="114"/>
     </row>
     <row r="23" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="162"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="113"/>
       <c r="D23" s="113"/>
       <c r="E23" s="114"/>
@@ -8800,7 +8968,7 @@
       <c r="G23" s="114"/>
     </row>
     <row r="24" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="162"/>
+      <c r="B24" s="167"/>
       <c r="C24" s="113"/>
       <c r="D24" s="113"/>
       <c r="E24" s="114"/>
@@ -8808,7 +8976,7 @@
       <c r="G24" s="114"/>
     </row>
     <row r="25" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="162"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="113"/>
       <c r="D25" s="113"/>
       <c r="E25" s="114"/>
@@ -8816,7 +8984,7 @@
       <c r="G25" s="114"/>
     </row>
     <row r="26" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="162"/>
+      <c r="B26" s="167"/>
       <c r="C26" s="113"/>
       <c r="D26" s="113"/>
       <c r="E26" s="114"/>
@@ -8824,7 +8992,7 @@
       <c r="G26" s="114"/>
     </row>
     <row r="27" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="162"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="113"/>
       <c r="D27" s="113"/>
       <c r="E27" s="114"/>
@@ -8832,7 +9000,7 @@
       <c r="G27" s="114"/>
     </row>
     <row r="28" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="162"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="113"/>
       <c r="D28" s="113"/>
       <c r="E28" s="114"/>
@@ -8840,7 +9008,7 @@
       <c r="G28" s="114"/>
     </row>
     <row r="29" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="162"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="113"/>
       <c r="D29" s="113"/>
       <c r="E29" s="114"/>
@@ -8848,7 +9016,7 @@
       <c r="G29" s="114"/>
     </row>
     <row r="30" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="162"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="113"/>
       <c r="D30" s="113"/>
       <c r="E30" s="114"/>
@@ -8856,7 +9024,7 @@
       <c r="G30" s="114"/>
     </row>
     <row r="31" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="162"/>
+      <c r="B31" s="167"/>
       <c r="C31" s="113"/>
       <c r="D31" s="113"/>
       <c r="E31" s="114"/>
@@ -8864,7 +9032,7 @@
       <c r="G31" s="114"/>
     </row>
     <row r="32" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="162"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="113"/>
       <c r="D32" s="113"/>
       <c r="E32" s="114"/>
@@ -8872,7 +9040,7 @@
       <c r="G32" s="114"/>
     </row>
     <row r="33" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="162"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="113"/>
       <c r="D33" s="113"/>
       <c r="E33" s="114"/>
@@ -8880,7 +9048,7 @@
       <c r="G33" s="114"/>
     </row>
     <row r="34" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="162"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="113"/>
       <c r="D34" s="113"/>
       <c r="E34" s="114"/>
@@ -8888,7 +9056,7 @@
       <c r="G34" s="114"/>
     </row>
     <row r="35" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="162"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="113"/>
       <c r="D35" s="113"/>
       <c r="E35" s="114"/>
@@ -8896,7 +9064,7 @@
       <c r="G35" s="114"/>
     </row>
     <row r="36" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="162"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="113"/>
       <c r="D36" s="113"/>
       <c r="E36" s="114"/>
@@ -8904,7 +9072,7 @@
       <c r="G36" s="114"/>
     </row>
     <row r="37" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="162"/>
+      <c r="B37" s="167"/>
       <c r="C37" s="113"/>
       <c r="D37" s="113"/>
       <c r="E37" s="114"/>
@@ -8912,7 +9080,7 @@
       <c r="G37" s="114"/>
     </row>
     <row r="38" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="162"/>
+      <c r="B38" s="167"/>
       <c r="C38" s="113"/>
       <c r="D38" s="113"/>
       <c r="E38" s="114"/>
@@ -8920,7 +9088,7 @@
       <c r="G38" s="114"/>
     </row>
     <row r="39" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="162"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="113"/>
       <c r="D39" s="113"/>
       <c r="E39" s="114"/>
@@ -8928,7 +9096,7 @@
       <c r="G39" s="114"/>
     </row>
     <row r="40" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="162"/>
+      <c r="B40" s="167"/>
       <c r="C40" s="113"/>
       <c r="D40" s="113"/>
       <c r="E40" s="114"/>
@@ -8936,7 +9104,7 @@
       <c r="G40" s="114"/>
     </row>
     <row r="41" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="162"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="113"/>
       <c r="D41" s="113"/>
       <c r="E41" s="114"/>
@@ -8944,7 +9112,7 @@
       <c r="G41" s="114"/>
     </row>
     <row r="42" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="162"/>
+      <c r="B42" s="167"/>
       <c r="C42" s="113"/>
       <c r="D42" s="113"/>
       <c r="E42" s="114"/>
@@ -8952,7 +9120,7 @@
       <c r="G42" s="114"/>
     </row>
     <row r="43" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="162"/>
+      <c r="B43" s="167"/>
       <c r="C43" s="113"/>
       <c r="D43" s="113"/>
       <c r="E43" s="114"/>
@@ -8960,7 +9128,7 @@
       <c r="G43" s="114"/>
     </row>
     <row r="44" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="162"/>
+      <c r="B44" s="167"/>
       <c r="C44" s="113"/>
       <c r="D44" s="113"/>
       <c r="E44" s="114"/>
@@ -8968,7 +9136,7 @@
       <c r="G44" s="114"/>
     </row>
     <row r="45" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="162"/>
+      <c r="B45" s="167"/>
       <c r="C45" s="113"/>
       <c r="D45" s="113"/>
       <c r="E45" s="114"/>
@@ -8976,7 +9144,7 @@
       <c r="G45" s="114"/>
     </row>
     <row r="46" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="162"/>
+      <c r="B46" s="167"/>
       <c r="C46" s="113"/>
       <c r="D46" s="113"/>
       <c r="E46" s="114"/>
@@ -8984,7 +9152,7 @@
       <c r="G46" s="114"/>
     </row>
     <row r="47" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="162"/>
+      <c r="B47" s="167"/>
       <c r="C47" s="113"/>
       <c r="D47" s="113"/>
       <c r="E47" s="114"/>
@@ -8992,7 +9160,7 @@
       <c r="G47" s="114"/>
     </row>
     <row r="48" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="162"/>
+      <c r="B48" s="167"/>
       <c r="C48" s="113"/>
       <c r="D48" s="113"/>
       <c r="E48" s="114"/>
@@ -9000,7 +9168,7 @@
       <c r="G48" s="114"/>
     </row>
     <row r="49" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="162"/>
+      <c r="B49" s="167"/>
       <c r="C49" s="113"/>
       <c r="D49" s="113"/>
       <c r="E49" s="114"/>
@@ -9008,7 +9176,7 @@
       <c r="G49" s="114"/>
     </row>
     <row r="50" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="162"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="113"/>
       <c r="D50" s="113"/>
       <c r="E50" s="114"/>
@@ -9016,7 +9184,7 @@
       <c r="G50" s="114"/>
     </row>
     <row r="51" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="162"/>
+      <c r="B51" s="167"/>
       <c r="C51" s="113"/>
       <c r="D51" s="113"/>
       <c r="E51" s="114"/>
@@ -9024,7 +9192,7 @@
       <c r="G51" s="114"/>
     </row>
     <row r="52" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="162"/>
+      <c r="B52" s="167"/>
       <c r="C52" s="113"/>
       <c r="D52" s="113"/>
       <c r="E52" s="114"/>
@@ -9032,7 +9200,7 @@
       <c r="G52" s="114"/>
     </row>
     <row r="53" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="162"/>
+      <c r="B53" s="167"/>
       <c r="C53" s="113"/>
       <c r="D53" s="113"/>
       <c r="E53" s="114"/>
@@ -9040,7 +9208,7 @@
       <c r="G53" s="114"/>
     </row>
     <row r="54" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="162"/>
+      <c r="B54" s="167"/>
       <c r="C54" s="113"/>
       <c r="D54" s="113"/>
       <c r="E54" s="114"/>
@@ -9048,7 +9216,7 @@
       <c r="G54" s="114"/>
     </row>
     <row r="55" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="162"/>
+      <c r="B55" s="167"/>
       <c r="C55" s="113"/>
       <c r="D55" s="113"/>
       <c r="E55" s="114"/>
@@ -9056,7 +9224,7 @@
       <c r="G55" s="114"/>
     </row>
     <row r="56" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="162"/>
+      <c r="B56" s="167"/>
       <c r="C56" s="113"/>
       <c r="D56" s="113"/>
       <c r="E56" s="114"/>
@@ -9064,7 +9232,7 @@
       <c r="G56" s="114"/>
     </row>
     <row r="57" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="162"/>
+      <c r="B57" s="167"/>
       <c r="C57" s="113"/>
       <c r="D57" s="113"/>
       <c r="E57" s="114"/>
@@ -9072,7 +9240,7 @@
       <c r="G57" s="114"/>
     </row>
     <row r="58" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="162"/>
+      <c r="B58" s="167"/>
       <c r="C58" s="113"/>
       <c r="D58" s="113"/>
       <c r="E58" s="114"/>
@@ -9080,7 +9248,7 @@
       <c r="G58" s="114"/>
     </row>
     <row r="59" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="162"/>
+      <c r="B59" s="167"/>
       <c r="C59" s="113"/>
       <c r="D59" s="113"/>
       <c r="E59" s="114"/>
@@ -9088,7 +9256,7 @@
       <c r="G59" s="114"/>
     </row>
     <row r="60" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="162"/>
+      <c r="B60" s="167"/>
       <c r="C60" s="113"/>
       <c r="D60" s="113"/>
       <c r="E60" s="114"/>
@@ -9096,7 +9264,7 @@
       <c r="G60" s="114"/>
     </row>
     <row r="61" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="162"/>
+      <c r="B61" s="167"/>
       <c r="C61" s="113"/>
       <c r="D61" s="113"/>
       <c r="E61" s="114"/>
@@ -9104,7 +9272,7 @@
       <c r="G61" s="114"/>
     </row>
     <row r="62" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="162"/>
+      <c r="B62" s="167"/>
       <c r="C62" s="113"/>
       <c r="D62" s="113"/>
       <c r="E62" s="114"/>
@@ -9112,7 +9280,7 @@
       <c r="G62" s="114"/>
     </row>
     <row r="63" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="162"/>
+      <c r="B63" s="167"/>
       <c r="C63" s="113"/>
       <c r="D63" s="113"/>
       <c r="E63" s="114"/>
@@ -9120,7 +9288,7 @@
       <c r="G63" s="114"/>
     </row>
     <row r="64" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="162"/>
+      <c r="B64" s="167"/>
       <c r="C64" s="113"/>
       <c r="D64" s="113"/>
       <c r="E64" s="114"/>
@@ -9128,7 +9296,7 @@
       <c r="G64" s="114"/>
     </row>
     <row r="65" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="162"/>
+      <c r="B65" s="167"/>
       <c r="C65" s="113"/>
       <c r="D65" s="113"/>
       <c r="E65" s="114"/>
@@ -9136,7 +9304,7 @@
       <c r="G65" s="114"/>
     </row>
     <row r="66" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="162"/>
+      <c r="B66" s="167"/>
       <c r="C66" s="113"/>
       <c r="D66" s="113"/>
       <c r="E66" s="114"/>
@@ -9144,7 +9312,7 @@
       <c r="G66" s="114"/>
     </row>
     <row r="67" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="162"/>
+      <c r="B67" s="167"/>
       <c r="C67" s="113"/>
       <c r="D67" s="113"/>
       <c r="E67" s="114"/>
@@ -9152,7 +9320,7 @@
       <c r="G67" s="114"/>
     </row>
     <row r="68" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="162"/>
+      <c r="B68" s="167"/>
       <c r="C68" s="113"/>
       <c r="D68" s="113"/>
       <c r="E68" s="114"/>
@@ -9160,7 +9328,7 @@
       <c r="G68" s="114"/>
     </row>
     <row r="69" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="162"/>
+      <c r="B69" s="167"/>
       <c r="C69" s="113"/>
       <c r="D69" s="113"/>
       <c r="E69" s="114"/>
@@ -9168,7 +9336,7 @@
       <c r="G69" s="114"/>
     </row>
     <row r="70" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="162"/>
+      <c r="B70" s="167"/>
       <c r="C70" s="113"/>
       <c r="D70" s="113"/>
       <c r="E70" s="114"/>
@@ -9176,7 +9344,7 @@
       <c r="G70" s="114"/>
     </row>
     <row r="71" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="162"/>
+      <c r="B71" s="167"/>
       <c r="C71" s="113"/>
       <c r="D71" s="113"/>
       <c r="E71" s="114"/>
@@ -9184,7 +9352,7 @@
       <c r="G71" s="114"/>
     </row>
     <row r="72" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="162"/>
+      <c r="B72" s="167"/>
       <c r="C72" s="113"/>
       <c r="D72" s="113"/>
       <c r="E72" s="114"/>
@@ -9192,7 +9360,7 @@
       <c r="G72" s="114"/>
     </row>
     <row r="73" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="162"/>
+      <c r="B73" s="167"/>
       <c r="C73" s="113"/>
       <c r="D73" s="113"/>
       <c r="E73" s="114"/>
@@ -9200,7 +9368,7 @@
       <c r="G73" s="114"/>
     </row>
     <row r="74" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="162"/>
+      <c r="B74" s="167"/>
       <c r="C74" s="113"/>
       <c r="D74" s="113"/>
       <c r="E74" s="114"/>
@@ -9208,7 +9376,7 @@
       <c r="G74" s="114"/>
     </row>
     <row r="75" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="162"/>
+      <c r="B75" s="167"/>
       <c r="C75" s="113"/>
       <c r="D75" s="113"/>
       <c r="E75" s="114"/>
@@ -9216,7 +9384,7 @@
       <c r="G75" s="114"/>
     </row>
     <row r="76" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="162"/>
+      <c r="B76" s="167"/>
       <c r="C76" s="113"/>
       <c r="D76" s="113"/>
       <c r="E76" s="114"/>
@@ -9224,7 +9392,7 @@
       <c r="G76" s="114"/>
     </row>
     <row r="77" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="162"/>
+      <c r="B77" s="167"/>
       <c r="C77" s="113"/>
       <c r="D77" s="113"/>
       <c r="E77" s="114"/>
@@ -9232,7 +9400,7 @@
       <c r="G77" s="114"/>
     </row>
     <row r="78" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="162"/>
+      <c r="B78" s="167"/>
       <c r="C78" s="113"/>
       <c r="D78" s="113"/>
       <c r="E78" s="114"/>
@@ -9240,7 +9408,7 @@
       <c r="G78" s="114"/>
     </row>
     <row r="79" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="162"/>
+      <c r="B79" s="167"/>
       <c r="C79" s="113"/>
       <c r="D79" s="113"/>
       <c r="E79" s="114"/>
@@ -9248,7 +9416,7 @@
       <c r="G79" s="114"/>
     </row>
     <row r="80" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="162"/>
+      <c r="B80" s="167"/>
       <c r="C80" s="113"/>
       <c r="D80" s="113"/>
       <c r="E80" s="114"/>
@@ -9256,7 +9424,7 @@
       <c r="G80" s="114"/>
     </row>
     <row r="81" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="162"/>
+      <c r="B81" s="167"/>
       <c r="C81" s="113"/>
       <c r="D81" s="113"/>
       <c r="E81" s="114"/>
@@ -9264,7 +9432,7 @@
       <c r="G81" s="114"/>
     </row>
     <row r="82" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="162"/>
+      <c r="B82" s="167"/>
       <c r="C82" s="113"/>
       <c r="D82" s="113"/>
       <c r="E82" s="114"/>
@@ -9272,7 +9440,7 @@
       <c r="G82" s="114"/>
     </row>
     <row r="83" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="162"/>
+      <c r="B83" s="167"/>
       <c r="C83" s="113"/>
       <c r="D83" s="113"/>
       <c r="E83" s="114"/>
@@ -9280,7 +9448,7 @@
       <c r="G83" s="114"/>
     </row>
     <row r="84" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="162"/>
+      <c r="B84" s="167"/>
       <c r="C84" s="113"/>
       <c r="D84" s="113"/>
       <c r="E84" s="114"/>
@@ -9288,7 +9456,7 @@
       <c r="G84" s="114"/>
     </row>
     <row r="85" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="162"/>
+      <c r="B85" s="167"/>
       <c r="C85" s="113"/>
       <c r="D85" s="113"/>
       <c r="E85" s="114"/>
@@ -9296,7 +9464,7 @@
       <c r="G85" s="114"/>
     </row>
     <row r="86" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="162"/>
+      <c r="B86" s="167"/>
       <c r="C86" s="113"/>
       <c r="D86" s="113"/>
       <c r="E86" s="114"/>
@@ -9304,7 +9472,7 @@
       <c r="G86" s="114"/>
     </row>
     <row r="87" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="162"/>
+      <c r="B87" s="167"/>
       <c r="C87" s="113"/>
       <c r="D87" s="113"/>
       <c r="E87" s="114"/>
@@ -9312,7 +9480,7 @@
       <c r="G87" s="114"/>
     </row>
     <row r="88" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="162"/>
+      <c r="B88" s="167"/>
       <c r="C88" s="113"/>
       <c r="D88" s="113"/>
       <c r="E88" s="114"/>
@@ -9320,7 +9488,7 @@
       <c r="G88" s="114"/>
     </row>
     <row r="89" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="162"/>
+      <c r="B89" s="167"/>
       <c r="C89" s="113"/>
       <c r="D89" s="113"/>
       <c r="E89" s="114"/>
@@ -9328,7 +9496,7 @@
       <c r="G89" s="114"/>
     </row>
     <row r="90" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="162"/>
+      <c r="B90" s="167"/>
       <c r="C90" s="113"/>
       <c r="D90" s="113"/>
       <c r="E90" s="114"/>
@@ -9336,7 +9504,7 @@
       <c r="G90" s="114"/>
     </row>
     <row r="91" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="162"/>
+      <c r="B91" s="167"/>
       <c r="C91" s="113"/>
       <c r="D91" s="113"/>
       <c r="E91" s="114"/>
@@ -9344,7 +9512,7 @@
       <c r="G91" s="114"/>
     </row>
     <row r="92" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="162"/>
+      <c r="B92" s="167"/>
       <c r="C92" s="113"/>
       <c r="D92" s="113"/>
       <c r="E92" s="114"/>
@@ -9352,7 +9520,7 @@
       <c r="G92" s="114"/>
     </row>
     <row r="93" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="162"/>
+      <c r="B93" s="167"/>
       <c r="C93" s="113"/>
       <c r="D93" s="113"/>
       <c r="E93" s="114"/>
@@ -9360,7 +9528,7 @@
       <c r="G93" s="114"/>
     </row>
     <row r="94" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="162"/>
+      <c r="B94" s="167"/>
       <c r="C94" s="113"/>
       <c r="D94" s="113"/>
       <c r="E94" s="114"/>
@@ -9368,7 +9536,7 @@
       <c r="G94" s="114"/>
     </row>
     <row r="95" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="162"/>
+      <c r="B95" s="167"/>
       <c r="C95" s="113"/>
       <c r="D95" s="113"/>
       <c r="E95" s="114"/>
@@ -9376,7 +9544,7 @@
       <c r="G95" s="114"/>
     </row>
     <row r="96" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="162"/>
+      <c r="B96" s="167"/>
       <c r="C96" s="113"/>
       <c r="D96" s="113"/>
       <c r="E96" s="114"/>
@@ -9384,7 +9552,7 @@
       <c r="G96" s="114"/>
     </row>
     <row r="97" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="163"/>
+      <c r="B97" s="168"/>
       <c r="C97" s="113"/>
       <c r="D97" s="113"/>
       <c r="E97" s="114"/>
@@ -10200,15 +10368,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="70aec471-1d4d-4b02-9515-7583ccbf69b7">
@@ -10217,6 +10376,15 @@
     <TaxCatchAll xmlns="20bf7c3d-7b50-4f47-8baf-8fabd18b6533" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10437,20 +10605,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59440FC-48CA-44F3-99FB-5B9D8034D70E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E4488B-A28B-4DF5-A206-2E38DA4B8040}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="70aec471-1d4d-4b02-9515-7583ccbf69b7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="20bf7c3d-7b50-4f47-8baf-8fabd18b6533"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59440FC-48CA-44F3-99FB-5B9D8034D70E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
